--- a/Testdata/Timkiem.xlsx
+++ b/Testdata/Timkiem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ĐỒ ÁN TỐT NGHIỆP\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATN\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>SP</t>
   </si>
@@ -117,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -127,6 +127,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,7 +417,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,13 +481,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -491,12 +501,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
